--- a/data/Sales_Summary_123_2022_Spokane-Python.xlsx
+++ b/data/Sales_Summary_123_2022_Spokane-Python.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXiong\Documents\Study\Harvard Extension school\2022\spring\PreCapstone\assignment\5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7431922-AF7B-428A-B483-11F040C918A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA59485-7C5E-45E8-A1EE-5A090F6AE1DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30555" yWindow="285" windowWidth="20970" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29790" yWindow="855" windowWidth="20970" windowHeight="14745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hourly_Breakdown" sheetId="2" r:id="rId1"/>
-    <sheet name="Weekday Breakdown" sheetId="3" r:id="rId2"/>
+    <sheet name="Weekday_Breakdown" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hourly_Breakdown!$A$1:$E$73</definedName>
@@ -642,17 +642,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.85546875" style="1"/>
+    <col min="1" max="16384" width="22.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1911,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/Sales_Summary_123_2022_Spokane-Python.xlsx
+++ b/data/Sales_Summary_123_2022_Spokane-Python.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XXiong\Documents\Study\Harvard Extension school\2022\spring\PreCapstone\assignment\5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA59485-7C5E-45E8-A1EE-5A090F6AE1DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5E4101-7687-4449-B45E-1F1F64A1980C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29790" yWindow="855" windowWidth="20970" windowHeight="14745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,16 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="21">
-  <si>
-    <t>Net Sales</t>
-  </si>
-  <si>
-    <t>Guest Count</t>
-  </si>
-  <si>
-    <t>Order Count</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="18">
   <si>
     <t>Hour</t>
   </si>
@@ -653,24 +644,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>4</v>
@@ -687,7 +678,7 @@
     </row>
     <row r="3" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
@@ -704,7 +695,7 @@
     </row>
     <row r="4" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>6</v>
@@ -721,7 +712,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>7</v>
@@ -738,7 +729,7 @@
     </row>
     <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>8</v>
@@ -755,7 +746,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="2">
         <v>9</v>
@@ -772,7 +763,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
@@ -789,7 +780,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2">
         <v>11</v>
@@ -806,7 +797,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
         <v>12</v>
@@ -823,7 +814,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2">
         <v>13</v>
@@ -840,7 +831,7 @@
     </row>
     <row r="12" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" s="2">
         <v>14</v>
@@ -857,7 +848,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13" s="2">
         <v>15</v>
@@ -874,7 +865,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14" s="2">
         <v>16</v>
@@ -891,7 +882,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" s="2">
         <v>17</v>
@@ -908,7 +899,7 @@
     </row>
     <row r="16" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" s="2">
         <v>18</v>
@@ -925,7 +916,7 @@
     </row>
     <row r="17" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" s="2">
         <v>19</v>
@@ -942,7 +933,7 @@
     </row>
     <row r="18" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
         <v>20</v>
@@ -959,7 +950,7 @@
     </row>
     <row r="19" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" s="2">
         <v>21</v>
@@ -976,7 +967,7 @@
     </row>
     <row r="20" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2">
         <v>22</v>
@@ -993,7 +984,7 @@
     </row>
     <row r="21" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21" s="2">
         <v>23</v>
@@ -1010,7 +1001,7 @@
     </row>
     <row r="22" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1027,7 +1018,7 @@
     </row>
     <row r="23" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -1044,7 +1035,7 @@
     </row>
     <row r="24" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
@@ -1061,7 +1052,7 @@
     </row>
     <row r="25" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
@@ -1078,7 +1069,7 @@
     </row>
     <row r="26" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
@@ -1095,7 +1086,7 @@
     </row>
     <row r="27" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2">
         <v>5</v>
@@ -1112,7 +1103,7 @@
     </row>
     <row r="28" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2">
         <v>6</v>
@@ -1129,7 +1120,7 @@
     </row>
     <row r="29" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2">
         <v>7</v>
@@ -1146,7 +1137,7 @@
     </row>
     <row r="30" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2">
         <v>8</v>
@@ -1163,7 +1154,7 @@
     </row>
     <row r="31" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2">
         <v>9</v>
@@ -1180,7 +1171,7 @@
     </row>
     <row r="32" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32" s="2">
         <v>10</v>
@@ -1197,7 +1188,7 @@
     </row>
     <row r="33" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B33" s="2">
         <v>11</v>
@@ -1214,7 +1205,7 @@
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34" s="2">
         <v>12</v>
@@ -1231,7 +1222,7 @@
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B35" s="2">
         <v>13</v>
@@ -1248,7 +1239,7 @@
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B36" s="2">
         <v>14</v>
@@ -1265,7 +1256,7 @@
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B37" s="2">
         <v>15</v>
@@ -1282,7 +1273,7 @@
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2">
         <v>16</v>
@@ -1299,7 +1290,7 @@
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2">
         <v>17</v>
@@ -1316,7 +1307,7 @@
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B40" s="2">
         <v>18</v>
@@ -1333,7 +1324,7 @@
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B41" s="2">
         <v>19</v>
@@ -1350,7 +1341,7 @@
     </row>
     <row r="42" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B42" s="2">
         <v>20</v>
@@ -1367,7 +1358,7 @@
     </row>
     <row r="43" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B43" s="2">
         <v>21</v>
@@ -1384,7 +1375,7 @@
     </row>
     <row r="44" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B44" s="2">
         <v>22</v>
@@ -1401,7 +1392,7 @@
     </row>
     <row r="45" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B45" s="2">
         <v>23</v>
@@ -1418,7 +1409,7 @@
     </row>
     <row r="46" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46" s="2">
         <v>0</v>
@@ -1435,7 +1426,7 @@
     </row>
     <row r="47" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
@@ -1452,7 +1443,7 @@
     </row>
     <row r="48" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
@@ -1469,7 +1460,7 @@
     </row>
     <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49" s="2">
         <v>3</v>
@@ -1486,7 +1477,7 @@
     </row>
     <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B50" s="2">
         <v>4</v>
@@ -1503,7 +1494,7 @@
     </row>
     <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B51" s="2">
         <v>5</v>
@@ -1520,7 +1511,7 @@
     </row>
     <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B52" s="2">
         <v>6</v>
@@ -1537,7 +1528,7 @@
     </row>
     <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B53" s="2">
         <v>7</v>
@@ -1554,7 +1545,7 @@
     </row>
     <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B54" s="2">
         <v>8</v>
@@ -1571,7 +1562,7 @@
     </row>
     <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B55" s="2">
         <v>9</v>
@@ -1588,7 +1579,7 @@
     </row>
     <row r="56" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B56" s="2">
         <v>10</v>
@@ -1605,7 +1596,7 @@
     </row>
     <row r="57" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B57" s="2">
         <v>11</v>
@@ -1622,7 +1613,7 @@
     </row>
     <row r="58" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B58" s="2">
         <v>12</v>
@@ -1639,7 +1630,7 @@
     </row>
     <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B59" s="2">
         <v>13</v>
@@ -1656,7 +1647,7 @@
     </row>
     <row r="60" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B60" s="2">
         <v>14</v>
@@ -1673,7 +1664,7 @@
     </row>
     <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B61" s="2">
         <v>15</v>
@@ -1690,7 +1681,7 @@
     </row>
     <row r="62" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B62" s="2">
         <v>16</v>
@@ -1707,7 +1698,7 @@
     </row>
     <row r="63" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B63" s="2">
         <v>17</v>
@@ -1724,7 +1715,7 @@
     </row>
     <row r="64" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B64" s="2">
         <v>18</v>
@@ -1741,7 +1732,7 @@
     </row>
     <row r="65" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B65" s="2">
         <v>19</v>
@@ -1758,7 +1749,7 @@
     </row>
     <row r="66" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B66" s="2">
         <v>20</v>
@@ -1775,7 +1766,7 @@
     </row>
     <row r="67" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B67" s="2">
         <v>21</v>
@@ -1792,7 +1783,7 @@
     </row>
     <row r="68" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B68" s="2">
         <v>22</v>
@@ -1809,7 +1800,7 @@
     </row>
     <row r="69" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B69" s="2">
         <v>23</v>
@@ -1826,7 +1817,7 @@
     </row>
     <row r="70" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B70" s="2">
         <v>0</v>
@@ -1843,7 +1834,7 @@
     </row>
     <row r="71" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B71" s="2">
         <v>1</v>
@@ -1860,7 +1851,7 @@
     </row>
     <row r="72" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B72" s="2">
         <v>2</v>
@@ -1877,7 +1868,7 @@
     </row>
     <row r="73" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B73" s="2">
         <v>3</v>
@@ -1908,7 +1899,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1921,27 +1912,27 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.7" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8">
         <v>8605.74</v>
@@ -1955,10 +1946,10 @@
     </row>
     <row r="3" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="8">
         <v>10908.81</v>
@@ -1972,10 +1963,10 @@
     </row>
     <row r="4" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="8">
         <v>10589.54</v>
@@ -1989,10 +1980,10 @@
     </row>
     <row r="5" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" s="8">
         <v>8185.26</v>
@@ -2006,10 +1997,10 @@
     </row>
     <row r="6" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8">
         <v>16076.28</v>
@@ -2023,10 +2014,10 @@
     </row>
     <row r="7" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8">
         <v>14643.21</v>
@@ -2040,10 +2031,10 @@
     </row>
     <row r="8" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8">
         <v>11382.77</v>
@@ -2057,10 +2048,10 @@
     </row>
     <row r="9" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" s="8">
         <v>11075.85</v>
@@ -2074,10 +2065,10 @@
     </row>
     <row r="10" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" s="8">
         <v>11309.52</v>
@@ -2091,10 +2082,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="C11" s="8">
         <v>12071.22</v>
@@ -2108,10 +2099,10 @@
     </row>
     <row r="12" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" s="8">
         <v>12892.93</v>
@@ -2125,10 +2116,10 @@
     </row>
     <row r="13" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="8">
         <v>17124.259999999998</v>
@@ -2142,10 +2133,10 @@
     </row>
     <row r="14" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8">
         <v>17753.95</v>
@@ -2159,10 +2150,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8">
         <v>15212.61</v>
@@ -2176,10 +2167,10 @@
     </row>
     <row r="16" spans="1:5" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" s="9">
         <v>13047.79</v>
@@ -2193,10 +2184,10 @@
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="9">
         <v>15733.28</v>
@@ -2210,10 +2201,10 @@
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" s="9">
         <v>15168.05</v>
@@ -2227,10 +2218,10 @@
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C19" s="9">
         <v>16540.310000000001</v>
@@ -2244,10 +2235,10 @@
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C20" s="9">
         <v>23868.37</v>
@@ -2261,10 +2252,10 @@
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9">
         <v>21062.6</v>
@@ -2278,10 +2269,10 @@
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" s="9">
         <v>20015.04</v>
